--- a/CaseAndFatalityDemographicsData/2021-09-03.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-09-03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\8.26.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\9.02.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C98142-C809-4504-B155-E05E28A64CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72246E34-0675-4212-804F-D65A844FEB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="3" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1158,11 +1158,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.6366314487825279E-4</v>
+        <v>1.7668468850489416E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.5458711425505992E-4</v>
+        <v>2.4735856390685181E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1182,11 +1182,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>7.4557654888981833E-4</v>
+        <v>7.5974416057104487E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1194,11 +1194,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.982797184993908E-3</v>
+        <v>6.5019965369801057E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1206,11 +1206,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>1087</v>
+        <v>1177</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.9766870942517868E-2</v>
+        <v>2.0795787837026042E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1218,11 +1218,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>3035</v>
+        <v>3226</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>5.5190849411721921E-2</v>
+        <v>5.6998480511678856E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1230,11 +1230,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>6483</v>
+        <v>6801</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11789201869396811</v>
+        <v>0.12016325665217852</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1242,11 +1242,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>5255</v>
+        <v>5420</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.5561091815024271E-2</v>
+        <v>9.5763101169652642E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1254,11 +1254,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6634</v>
+        <v>6804</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12063792256914768</v>
+        <v>0.12021626205873</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1266,11 +1266,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>7290</v>
+        <v>7472</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13256714735138478</v>
+        <v>0.13201879925085691</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1278,11 +1278,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>7141</v>
+        <v>7282</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12985761306395591</v>
+        <v>0.12866179016926393</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1290,11 +1290,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>17673</v>
+        <v>17981</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.3213798621592624</v>
+        <v>0.31769673840065021</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>54991</v>
+        <v>56598</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1353,11 +1353,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>23014</v>
+        <v>23678</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41850484624756779</v>
+        <v>0.41835400544188839</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1365,11 +1365,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>31976</v>
+        <v>32919</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58147696895855683</v>
+        <v>0.58162832608926107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.8184793875361422E-5</v>
+        <v>1.7668468850489415E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>54991</v>
+        <v>56598</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1431,11 +1431,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1130</v>
+        <v>1144</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>2.0548817079158409E-2</v>
+        <v>2.0212728364959891E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1443,11 +1443,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5598</v>
+        <v>5753</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10179847611427324</v>
+        <v>0.10164670129686561</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1455,11 +1455,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>25108</v>
+        <v>25727</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.45658380462257458</v>
+        <v>0.4545566981165412</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1467,11 +1467,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.4918077503591494E-3</v>
+        <v>5.5832361567546554E-3</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1480,11 +1480,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>22827</v>
+        <v>23631</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.41510428979287523</v>
+        <v>0.41752358740591539</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1492,11 +1492,11 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.7280464075939699E-4</v>
+        <v>4.7704865896321423E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>54991</v>
+        <v>56598</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
